--- a/public/reports/expired_report.xlsx
+++ b/public/reports/expired_report.xlsx
@@ -15,36 +15,507 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t xml:space="preserve"> EXPIRED ITEM LIST </t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Batch Number</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Expiration</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Loss</t>
-  </si>
-  <si>
-    <t>Total</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
+  <si>
+    <t xml:space="preserve">Users </t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>Cathebert</t>
+  </si>
+  <si>
+    <t>Muyila</t>
+  </si>
+  <si>
+    <t>cdmuyila@gmail.com</t>
+  </si>
+  <si>
+    <t>0993835161</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>cat.mb</t>
+  </si>
+  <si>
+    <t>Blantyre Lab-Microbiology</t>
+  </si>
+  <si>
+    <t>cat.ar</t>
+  </si>
+  <si>
+    <t>Blantyre Lab TB</t>
+  </si>
+  <si>
+    <t>cathebert.st</t>
+  </si>
+  <si>
+    <t>emmie</t>
+  </si>
+  <si>
+    <t>banda</t>
+  </si>
+  <si>
+    <t>info@cmmalawi.com</t>
+  </si>
+  <si>
+    <t>0882483018</t>
+  </si>
+  <si>
+    <t>sam.st</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Kapito</t>
+  </si>
+  <si>
+    <t>kapitoco@gmail.com</t>
+  </si>
+  <si>
+    <t>sjackson.cr</t>
+  </si>
+  <si>
+    <t>Cold Room</t>
+  </si>
+  <si>
+    <t>skapito.cr</t>
+  </si>
+  <si>
+    <t>salick.tb</t>
+  </si>
+  <si>
+    <t>ebanda.tb</t>
+  </si>
+  <si>
+    <t>skapito.mb</t>
+  </si>
+  <si>
+    <t>skapito.tb</t>
+  </si>
+  <si>
+    <t>skapito.bs</t>
+  </si>
+  <si>
+    <t>Blantyre Lab-Blood Science</t>
+  </si>
+  <si>
+    <t>skapito.pr</t>
+  </si>
+  <si>
+    <t>Blantyre Lab-Parasitology</t>
+  </si>
+  <si>
+    <t>skapito.ml</t>
+  </si>
+  <si>
+    <t>Blantyre Lab Molecular</t>
+  </si>
+  <si>
+    <t>skapito.ar</t>
+  </si>
+  <si>
+    <t>Blantyre Lab Archives</t>
+  </si>
+  <si>
+    <t>skapito.pl</t>
+  </si>
+  <si>
+    <t>Projects Laboratories</t>
+  </si>
+  <si>
+    <t>rjack.st</t>
+  </si>
+  <si>
+    <t>robert</t>
+  </si>
+  <si>
+    <t>jackie</t>
+  </si>
+  <si>
+    <t>cmincorp2019@gmail.com</t>
+  </si>
+  <si>
+    <t>bdenis.st</t>
+  </si>
+  <si>
+    <t>brigitte</t>
+  </si>
+  <si>
+    <t>denis</t>
+  </si>
+  <si>
+    <t>bdenis@mlw.mw</t>
+  </si>
+  <si>
+    <t>0999912042</t>
+  </si>
+  <si>
+    <t>bdenis.tb</t>
+  </si>
+  <si>
+    <t>bdenis.mb</t>
+  </si>
+  <si>
+    <t>bdenis.dg</t>
+  </si>
+  <si>
+    <t>Blantyre Lab-Diagnostics</t>
+  </si>
+  <si>
+    <t>bdenis.bs</t>
+  </si>
+  <si>
+    <t>bdenis.pr</t>
+  </si>
+  <si>
+    <t>bdenis.ml</t>
+  </si>
+  <si>
+    <t>bdenis.ar</t>
+  </si>
+  <si>
+    <t>bdenis.pl</t>
+  </si>
+  <si>
+    <t>bdenis.cr</t>
+  </si>
+  <si>
+    <t>skapito.st</t>
+  </si>
+  <si>
+    <t>samuel</t>
+  </si>
+  <si>
+    <t>kapito</t>
+  </si>
+  <si>
+    <t>skapito@mlw.mw</t>
+  </si>
+  <si>
+    <t>0884657461</t>
+  </si>
+  <si>
+    <t>selemani.st</t>
+  </si>
+  <si>
+    <t>george</t>
+  </si>
+  <si>
+    <t>selemani</t>
+  </si>
+  <si>
+    <t>gselemani@mlw.mw</t>
+  </si>
+  <si>
+    <t>selemani.tb</t>
+  </si>
+  <si>
+    <t>selemani.mb</t>
+  </si>
+  <si>
+    <t>selemani.dg</t>
+  </si>
+  <si>
+    <t>selemani.pr</t>
+  </si>
+  <si>
+    <t>selemani.ml</t>
+  </si>
+  <si>
+    <t>selemani.ar</t>
+  </si>
+  <si>
+    <t>selemani.pl</t>
+  </si>
+  <si>
+    <t>selemani.cr</t>
+  </si>
+  <si>
+    <t>denis.tb</t>
+  </si>
+  <si>
+    <t>bridgette</t>
+  </si>
+  <si>
+    <t>+265 999 91 20 42</t>
+  </si>
+  <si>
+    <t>denis.ml</t>
+  </si>
+  <si>
+    <t>tmussa.mb</t>
+  </si>
+  <si>
+    <t>twaina</t>
+  </si>
+  <si>
+    <t>mussa</t>
+  </si>
+  <si>
+    <t>testlabtechnician94@gmail.com</t>
+  </si>
+  <si>
+    <t>tmussa.tb</t>
+  </si>
+  <si>
+    <t>mmenyere.ml</t>
+  </si>
+  <si>
+    <t>mavis</t>
+  </si>
+  <si>
+    <t>menyere</t>
+  </si>
+  <si>
+    <t>mmenyere@mlw.mw</t>
+  </si>
+  <si>
+    <t>0993853508</t>
+  </si>
+  <si>
+    <t>pmphasa.pr</t>
+  </si>
+  <si>
+    <t>patrick</t>
+  </si>
+  <si>
+    <t>mphasa</t>
+  </si>
+  <si>
+    <t>pmphasa@mlw.mw</t>
+  </si>
+  <si>
+    <t>0888520850</t>
+  </si>
+  <si>
+    <t>mlimbuni.ar</t>
+  </si>
+  <si>
+    <t>molly</t>
+  </si>
+  <si>
+    <t>limbuni</t>
+  </si>
+  <si>
+    <t>mlimbuni@mlw.mw</t>
+  </si>
+  <si>
+    <t>0999659512</t>
+  </si>
+  <si>
+    <t>mmachonjo.bs</t>
+  </si>
+  <si>
+    <t>mirriam</t>
+  </si>
+  <si>
+    <t>machonjo</t>
+  </si>
+  <si>
+    <t>mmachonjo@mlw.mw</t>
+  </si>
+  <si>
+    <t>0888363536</t>
+  </si>
+  <si>
+    <t>sbilima.mb</t>
+  </si>
+  <si>
+    <t>sithembile</t>
+  </si>
+  <si>
+    <t>bilima</t>
+  </si>
+  <si>
+    <t>sbilima@mlw.mw</t>
+  </si>
+  <si>
+    <t>0991684516</t>
+  </si>
+  <si>
+    <t>ckukacha.mb</t>
+  </si>
+  <si>
+    <t>christopher</t>
+  </si>
+  <si>
+    <t>kukacha</t>
+  </si>
+  <si>
+    <t>ckukacha@mlw.mw</t>
+  </si>
+  <si>
+    <t>0881818918</t>
+  </si>
+  <si>
+    <t>mmenyere.cr</t>
+  </si>
+  <si>
+    <t>mlimbuni.cr</t>
+  </si>
+  <si>
+    <t>mmachonjo.cr</t>
+  </si>
+  <si>
+    <t>flipenga.st</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>lipenga</t>
+  </si>
+  <si>
+    <t>flipenga@mlw.mw</t>
+  </si>
+  <si>
+    <t>0999930044</t>
+  </si>
+  <si>
+    <t>kaphika.st</t>
+  </si>
+  <si>
+    <t>joshua</t>
+  </si>
+  <si>
+    <t>kaphika</t>
+  </si>
+  <si>
+    <t>jkaphika@mlw.mw</t>
+  </si>
+  <si>
+    <t>0888421953</t>
+  </si>
+  <si>
+    <t>kaphika.tb</t>
+  </si>
+  <si>
+    <t>kaphika.mb</t>
+  </si>
+  <si>
+    <t>kaphika.bs</t>
+  </si>
+  <si>
+    <t>kaphika.pr</t>
+  </si>
+  <si>
+    <t>kaphika.ml</t>
+  </si>
+  <si>
+    <t>kaphika.ar</t>
+  </si>
+  <si>
+    <t>kaphika.cr</t>
+  </si>
+  <si>
+    <t>kaphika.pl</t>
+  </si>
+  <si>
+    <t>tmussa.dg</t>
+  </si>
+  <si>
+    <t>skapito.dg</t>
+  </si>
+  <si>
+    <t>stech.st</t>
+  </si>
+  <si>
+    <t>senior</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>testseniorlabtechnician99@gmail.com</t>
+  </si>
+  <si>
+    <t>0999712234</t>
+  </si>
+  <si>
+    <t>ckukacha.cr</t>
+  </si>
+  <si>
+    <t>mnyirongomb</t>
+  </si>
+  <si>
+    <t>Mapopa</t>
+  </si>
+  <si>
+    <t>Nyirongo</t>
+  </si>
+  <si>
+    <t>mnyirongo@mlw.mw</t>
+  </si>
+  <si>
+    <t>0991247604</t>
+  </si>
+  <si>
+    <t>amnyanga.tb</t>
+  </si>
+  <si>
+    <t>alice</t>
+  </si>
+  <si>
+    <t>mnyanga</t>
+  </si>
+  <si>
+    <t>amnyanga@mlw.mw</t>
+  </si>
+  <si>
+    <t>dshani.tb</t>
+  </si>
+  <si>
+    <t>doris</t>
+  </si>
+  <si>
+    <t>shani</t>
+  </si>
+  <si>
+    <t>dshani@mlw.mw</t>
+  </si>
+  <si>
+    <t>sMuyila.st</t>
+  </si>
+  <si>
+    <t>samson</t>
+  </si>
+  <si>
+    <t>cathebert@indemw.tech</t>
+  </si>
+  <si>
+    <t>09988765666</t>
+  </si>
+  <si>
+    <t>SBilimamb</t>
+  </si>
+  <si>
+    <t>Sithembire</t>
+  </si>
+  <si>
+    <t>Bilima</t>
   </si>
 </sst>
 </file>
@@ -92,10 +563,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="4" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,17 +611,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="Expired_Data" ref="A8:H9" headerRowCount="1" totalsRowCount="0">
-  <autoFilter ref="A8:H9"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Code"/>
-    <tableColumn id="3" name="Batch Number"/>
-    <tableColumn id="4" name="Location"/>
-    <tableColumn id="5" name="Expiration"/>
-    <tableColumn id="6" name="Quantity"/>
-    <tableColumn id="7" name="Cost"/>
-    <tableColumn id="8" name="Loss"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="Expired_Data" ref="A8:F78" headerRowCount="1" totalsRowCount="0">
+  <autoFilter ref="A8:F78"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="User Name"/>
+    <tableColumn id="2" name="First Name"/>
+    <tableColumn id="3" name="Last Name"/>
+    <tableColumn id="4" name="Email"/>
+    <tableColumn id="5" name="Phone"/>
+    <tableColumn id="6" name="Lab"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -447,26 +915,26 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="18.9954" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="15.282" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="C2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:6">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -485,19 +953,1352 @@
       <c r="F8" t="s">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" t="s">
+        <v>129</v>
+      </c>
+      <c r="E65" t="s">
+        <v>130</v>
+      </c>
+      <c r="F65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" t="s">
+        <v>116</v>
+      </c>
+      <c r="E72" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" t="s">
+        <v>155</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" t="s">
+        <v>159</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76" t="s">
+        <v>163</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
